--- a/public/templates/import-kpi-position-chart-v6-vi.xlsx
+++ b/public/templates/import-kpi-position-chart-v6-vi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudjetSoluions\cloudjet\elms\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD91EC4D-85E5-40F5-A9B3-E026C98AE7A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B795AF1F-73E2-4FB6-88A4-D675269F21CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>Tính tổng</t>
-  </si>
-  <si>
     <t>&gt;=</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Số trường hợp các hồ sơ đấu thầu được thâm định sai quy trình/quy chế</t>
-  </si>
-  <si>
-    <t>Tháng gần nhất</t>
   </si>
   <si>
     <t>CÔNG TÁC PHÁP CHẾ</t>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>PHƯƠNG PHÁP PHÂN BỔ CHỈ TIÊU</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Tháng/quý gần nhất</t>
   </si>
 </sst>
 </file>
@@ -760,10 +760,10 @@
   <dimension ref="A1:AR998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -790,19 +790,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -826,10 +826,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>10</v>
@@ -882,26 +882,26 @@
     </row>
     <row r="2" spans="1:44" ht="40.5" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -944,26 +944,26 @@
     </row>
     <row r="3" spans="1:44" ht="40.5" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>30</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5">
         <v>12</v>
@@ -1034,26 +1034,26 @@
     </row>
     <row r="4" spans="1:44" ht="40.5" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1090,26 +1090,26 @@
     </row>
     <row r="5" spans="1:44" ht="40.5" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>

--- a/public/templates/import-kpi-position-chart-v6-vi.xlsx
+++ b/public/templates/import-kpi-position-chart-v6-vi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudjetSoluions\cloudjet\elms\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B795AF1F-73E2-4FB6-88A4-D675269F21CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64777B1D-5A0F-4EEB-AA55-1D3AA80BEF8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,10 +760,10 @@
   <dimension ref="A1:AR998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -965,57 +965,23 @@
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5">
-        <v>12</v>
-      </c>
-      <c r="J3" s="5">
-        <v>121</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
-        <v>3</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3" s="5">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>45</v>
-      </c>
-      <c r="R3" s="5">
-        <v>4</v>
-      </c>
-      <c r="S3" s="5">
-        <v>2</v>
-      </c>
-      <c r="T3" s="5">
-        <v>5</v>
-      </c>
-      <c r="U3" s="5">
-        <v>3</v>
-      </c>
-      <c r="V3" s="5">
-        <v>5</v>
-      </c>
-      <c r="W3" s="5">
-        <v>4</v>
-      </c>
-      <c r="X3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="21">
-        <v>15</v>
-      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="25">
         <v>0.2</v>
       </c>
